--- a/System Development/Product backlog v2.xlsx
+++ b/System Development/Product backlog v2.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="Team Roles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -77,18 +79,9 @@
     <t>I can remove myself from searches</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
     <t>I can send a Connection request</t>
   </si>
   <si>
-    <t>Accept connection request</t>
-  </si>
-  <si>
-    <t>Remove/decline</t>
-  </si>
-  <si>
     <t>Be able to remove/decline connection request</t>
   </si>
   <si>
@@ -107,9 +100,6 @@
     <t>Be able to report another user</t>
   </si>
   <si>
-    <t>I can remove spammer and anoying people</t>
-  </si>
-  <si>
     <t>Send message</t>
   </si>
   <si>
@@ -119,12 +109,6 @@
     <t>Be able to search the search for other people with certain passions</t>
   </si>
   <si>
-    <t>Narrow serach</t>
-  </si>
-  <si>
-    <t>Be able to narrow a seach by criteria</t>
-  </si>
-  <si>
     <t>I can find certain people(closer, far away..)</t>
   </si>
   <si>
@@ -197,15 +181,6 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>Buy help</t>
-  </si>
-  <si>
-    <t>Be able to ask for paid help</t>
-  </si>
-  <si>
-    <t>I can get help immediately</t>
-  </si>
-  <si>
     <t>Block users from app</t>
   </si>
   <si>
@@ -275,9 +250,6 @@
     <t>Remove users rights</t>
   </si>
   <si>
-    <t>Be able to derank and administrator to become a user.</t>
-  </si>
-  <si>
     <t>I can fire people.</t>
   </si>
   <si>
@@ -372,6 +344,129 @@
   </si>
   <si>
     <t>In the store the user can purchase online help. Purchasing the package will allow the user to message a 24/7 help service.</t>
+  </si>
+  <si>
+    <t>Narrow search</t>
+  </si>
+  <si>
+    <t>Be able to narrow a search by criteria</t>
+  </si>
+  <si>
+    <t>Remove/decline request</t>
+  </si>
+  <si>
+    <t>I can remove spammer and annoying people</t>
+  </si>
+  <si>
+    <t>Book assistance</t>
+  </si>
+  <si>
+    <t>Book an advisor</t>
+  </si>
+  <si>
+    <t>I can book an advisor and ask for help</t>
+  </si>
+  <si>
+    <t>Be able to drank an administrator to become a user.</t>
+  </si>
+  <si>
+    <t>Story points</t>
+  </si>
+  <si>
+    <t>Search and show</t>
+  </si>
+  <si>
+    <t>Accept &amp; Matching</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Start Search</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>create database, register interface, connections, querries</t>
+  </si>
+  <si>
+    <t>login interface, connections, querries</t>
+  </si>
+  <si>
+    <t>search algorythm, retrieve info order, compare data,</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Ionut</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>2nd programmer</t>
+  </si>
+  <si>
+    <t>Report Writing, Candidate Class Diagram - Richard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo - Design Class Diagram, Technology Report, </t>
+  </si>
+  <si>
+    <t>Stand up meeting agreement</t>
+  </si>
+  <si>
+    <t>when not at school</t>
+  </si>
+  <si>
+    <t>when at school</t>
+  </si>
+  <si>
+    <t>summarizing previous results</t>
+  </si>
+  <si>
+    <t>deciding on following steps</t>
+  </si>
+  <si>
+    <t>checking milestones</t>
+  </si>
+  <si>
+    <t>Development Environment</t>
+  </si>
+  <si>
+    <t>Have all software on all the laptops</t>
+  </si>
+  <si>
+    <t>We use Visual Studio for coding in C#</t>
+  </si>
+  <si>
+    <t>Test phone is a Windows Phone running on Windows 8</t>
   </si>
 </sst>
 </file>
@@ -446,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -458,9 +553,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -476,7 +572,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -762,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,9 +871,10 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,12 +894,15 @@
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -818,12 +918,17 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -839,12 +944,17 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -862,8 +972,9 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -881,431 +992,489 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1318,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1345,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1356,10 +1525,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1367,10 +1536,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1378,10 +1547,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1389,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7"/>
     </row>
@@ -1398,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C7" s="7"/>
     </row>
@@ -1407,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C8" s="7"/>
     </row>
@@ -1416,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -1425,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C10" s="7"/>
     </row>
@@ -1434,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -1443,10 +1612,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1454,10 +1623,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1465,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -1474,10 +1643,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1485,10 +1654,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1496,10 +1665,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1507,10 +1676,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1518,10 +1687,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1529,10 +1698,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,4 +1757,192 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/System Development/Product backlog v2.xlsx
+++ b/System Development/Product backlog v2.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidDELL\Documents\Munkák 3\Tanulmányok\UCN\Computer Science AP\3rd Semester\GitHub\FellowApp\FellowApp\System Development\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Details" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tasks" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Team Roles" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint Backlog" sheetId="5" r:id="rId4"/>
+    <sheet name="Team Roles" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="189">
   <si>
     <t>ID</t>
   </si>
@@ -211,7 +216,7 @@
     <t>Be able to search for a person in chat/group chat</t>
   </si>
   <si>
-    <t>I can private message it </t>
+    <t>I can private message it</t>
   </si>
   <si>
     <t>Book assistance</t>
@@ -358,7 +363,7 @@
     <t>By sliding from the left side of the screen the user will reveal the chat.The connection/group with new messages changed color. Selecting a connection or a group will allow the user to answer to messages.</t>
   </si>
   <si>
-    <t>In the chat the user can press the Create group button. In there he will pressed with Add connection to group, Remove connection from group, Delete group buttons. </t>
+    <t>In the chat the user can press the Create group button. In there he will pressed with Add connection to group, Remove connection from group, Delete group buttons.</t>
   </si>
   <si>
     <t>By going into the chat the user can select a group.If he presses the details button he will see a list will all connections from the group and the Add/Remove connection and delete buttons. Pressing the delete group button will remove the group.</t>
@@ -397,25 +402,13 @@
     <t>tasks</t>
   </si>
   <si>
-    <t>create database, register interface, connections, querries</t>
-  </si>
-  <si>
     <t>Ionut</t>
   </si>
   <si>
     <t>Report Writing, Candidate Class Diagram - Richard</t>
   </si>
   <si>
-    <t>login interface, connections, querries</t>
-  </si>
-  <si>
-    <t>Leo - Design Class Diagram, Technology Report, </t>
-  </si>
-  <si>
-    <t>Start Search</t>
-  </si>
-  <si>
-    <t>search algorythm, retrieve info order, compare data,</t>
+    <t>Leo - Design Class Diagram, Technology Report,</t>
   </si>
   <si>
     <t>Alex</t>
@@ -470,38 +463,154 @@
   </si>
   <si>
     <t>Test phone is a Windows Phone running on Windows 8</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>register interface</t>
+  </si>
+  <si>
+    <t>database connections</t>
+  </si>
+  <si>
+    <t>Querries</t>
+  </si>
+  <si>
+    <t>Create Database</t>
+  </si>
+  <si>
+    <t>Login interface</t>
+  </si>
+  <si>
+    <t>Search Algorythm</t>
+  </si>
+  <si>
+    <t>Narrow Search</t>
+  </si>
+  <si>
+    <t>Search and Show</t>
+  </si>
+  <si>
+    <t>Check Details</t>
+  </si>
+  <si>
+    <t>Search Interface</t>
+  </si>
+  <si>
+    <t>Make listing</t>
+  </si>
+  <si>
+    <t>Database Access</t>
+  </si>
+  <si>
+    <t>Create Filters</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Multi filtering</t>
+  </si>
+  <si>
+    <t>Resorting</t>
+  </si>
+  <si>
+    <t>Personal Page UI</t>
+  </si>
+  <si>
+    <t>Check Details button</t>
+  </si>
+  <si>
+    <t>Connect list with personal page</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Task Owner</t>
+  </si>
+  <si>
+    <t>Hours of Work Remaining on Each Day of the Sprint</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Register interface</t>
+  </si>
+  <si>
+    <t>Database Connections</t>
+  </si>
+  <si>
+    <t>Search &amp; Show</t>
+  </si>
+  <si>
+    <t>Search interface</t>
+  </si>
+  <si>
+    <t>Search Algorithm</t>
+  </si>
+  <si>
+    <t>Datbase Access</t>
+  </si>
+  <si>
+    <t>Make Listing</t>
+  </si>
+  <si>
+    <t>Multi Filtering</t>
+  </si>
+  <si>
+    <t>Check Details Button</t>
+  </si>
+  <si>
+    <t>Connect list with PP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="HH:MM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -511,7 +620,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,132 +633,402 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.75510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9132653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.34183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.34183673469388"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="28.140625"/>
+    <col min="3" max="3" width="14.7109375"/>
+    <col min="4" max="4" width="79.28515625"/>
+    <col min="5" max="5" width="57.85546875"/>
+    <col min="6" max="6" width="9.28515625"/>
+    <col min="7" max="7" width="12.5703125"/>
+    <col min="8" max="1025" width="9.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,8 +1056,8 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -693,18 +1072,20 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -719,18 +1100,20 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -745,12 +1128,14 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -765,12 +1150,14 @@
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -785,16 +1172,16 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>15</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -809,16 +1196,16 @@
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -833,16 +1220,16 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -857,16 +1244,16 @@
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -881,16 +1268,16 @@
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>6</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -905,16 +1292,16 @@
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -929,12 +1316,14 @@
       <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -949,16 +1338,16 @@
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>10</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -973,16 +1362,16 @@
       <c r="E14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>4</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -997,12 +1386,14 @@
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1017,12 +1408,14 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1037,12 +1430,14 @@
       <c r="E17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1057,12 +1452,14 @@
       <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1077,12 +1474,14 @@
       <c r="E19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>8</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1097,16 +1496,16 @@
       <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>12</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1121,12 +1520,14 @@
       <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1142,8 +1543,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1158,12 +1559,14 @@
       <c r="E23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>11</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1178,12 +1581,14 @@
       <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>11</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1198,12 +1603,14 @@
       <c r="E25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1218,12 +1625,14 @@
       <c r="E26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>12</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1238,51 +1647,45 @@
       <c r="E27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>12</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.34183673469388"/>
+    <col min="1" max="1" width="29.7109375"/>
+    <col min="2" max="2" width="62.140625"/>
+    <col min="3" max="3" width="19.85546875"/>
+    <col min="4" max="1025" width="9.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,8 +1696,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1304,8 +1707,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1315,8 +1718,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1326,8 +1729,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1337,8 +1740,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1346,8 +1749,8 @@
       </c>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1355,8 +1758,8 @@
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1364,8 +1767,8 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1373,8 +1776,8 @@
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1382,8 +1785,8 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1391,8 +1794,8 @@
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1402,8 +1805,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1413,8 +1816,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1422,8 +1825,8 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1433,8 +1836,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1444,8 +1847,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1455,8 +1858,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1466,8 +1869,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1477,8 +1880,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1488,271 +1891,561 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.34183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.1428571428572"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.34183673469388"/>
+    <col min="1" max="1" width="12.42578125"/>
+    <col min="2" max="3" width="9.28515625"/>
+    <col min="4" max="4" width="58.140625"/>
+    <col min="5" max="1025" width="9.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="G4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="0" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>131</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.34183673469388"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125"/>
+    <col min="2" max="1025" width="9.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B4" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B8" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="B9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/System Development/Product backlog v2.xlsx
+++ b/System Development/Product backlog v2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -595,6 +595,36 @@
   </si>
   <si>
     <t>Connect list with PP</t>
+  </si>
+  <si>
+    <t>work time</t>
+  </si>
+  <si>
+    <t>4 hour/day</t>
+  </si>
+  <si>
+    <t>5 days / week</t>
+  </si>
+  <si>
+    <t>sprint 1</t>
+  </si>
+  <si>
+    <t>sprint 2</t>
+  </si>
+  <si>
+    <t>sprint 3</t>
+  </si>
+  <si>
+    <t>sprint 4</t>
+  </si>
+  <si>
+    <t>20 hours / week</t>
+  </si>
+  <si>
+    <t>80 hours total</t>
+  </si>
+  <si>
+    <t>1 SP = 1,194 hour</t>
   </si>
 </sst>
 </file>
@@ -721,15 +751,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1013,7 +1043,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H12" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -1950,7 +1980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2107,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,27 +2148,37 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D2" t="s">
@@ -2165,152 +2205,591 @@
       <c r="K2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="N2">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15" t="s">
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15" t="s">
+      <c r="E5">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <v>3.5</v>
+      </c>
+      <c r="G5">
+        <v>2.5</v>
+      </c>
+      <c r="H5">
+        <v>2.5</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>2.5</v>
+      </c>
+      <c r="K5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <f>13*1.194</f>
+        <v>15.521999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="15" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <f>19*1.194</f>
+        <v>22.686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="15" t="s">
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+      <c r="J8">
+        <v>2.5</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f>9*1.194</f>
+        <v>10.745999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9">
+        <v>26</v>
+      </c>
+      <c r="O9">
+        <f>26*1.194</f>
+        <v>31.043999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>182</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f>N11*1.194</f>
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="11" t="s">
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O28" si="0">N12*1.194</f>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="11" t="s">
+      <c r="E13">
+        <v>2.5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>3.5819999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="10" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="11" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="11" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="10" t="s">
         <v>188</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>183</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>185</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>2.3879999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>159</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>163</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>188</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>1.194</v>
       </c>
     </row>
   </sheetData>
